--- a/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="153">
   <si>
     <t>WorflowName</t>
   </si>
@@ -248,34 +248,13 @@
     <t>AddNewSales@gmail.com</t>
   </si>
   <si>
-    <t>Summary Add Text</t>
-  </si>
-  <si>
-    <t>DuplicateLead@gmail.com</t>
-  </si>
-  <si>
-    <t>DuplicateSales@gmail.com</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
     <t>CurrentTime</t>
   </si>
   <si>
-    <t>CreateEntityTarget</t>
-  </si>
-  <si>
     <t>SourceModuleName</t>
   </si>
   <si>
     <t>TargetModuleName</t>
-  </si>
-  <si>
-    <t>CreateEntitySource</t>
   </si>
   <si>
     <t>ModuleDisplayName1</t>
@@ -300,30 +279,6 @@
     <t>SummaryAddNewSales@gmail.com</t>
   </si>
   <si>
-    <t>DuplicateEmail@rsoft.in</t>
-  </si>
-  <si>
-    <t>DuplicateEnquiry@gmail.com</t>
-  </si>
-  <si>
-    <t>Sales Team Management module helps sales team to plan, prioritize daily activities such as calls, followups &amp; Visits. The module consists of Activity Screen, Due Date, Time, Email/SMS Reminders, Activity Completion Notes.</t>
-  </si>
-  <si>
-    <t>Edit Record</t>
-  </si>
-  <si>
-    <t>EditNewEmail@rsoft.in</t>
-  </si>
-  <si>
-    <t>EditEnquiry@gmail.com</t>
-  </si>
-  <si>
-    <t>EditLeadLead@gmail.com</t>
-  </si>
-  <si>
-    <t>EditSales@gmail.com</t>
-  </si>
-  <si>
     <t>0231907562</t>
   </si>
   <si>
@@ -336,12 +291,6 @@
     <t>0472103025</t>
   </si>
   <si>
-    <t>Create Entity - CreateEntityTarget</t>
-  </si>
-  <si>
-    <t>tskCreateEntity_SuccessUpdate</t>
-  </si>
-  <si>
     <t>MultiTargetMod1</t>
   </si>
   <si>
@@ -378,15 +327,9 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
     <t>CT: Fri, Apr 05, 2024 at 3:53 PM</t>
   </si>
   <si>
-    <t>2024-04-05 04:00:21 PM</t>
-  </si>
-  <si>
     <t>CT: Fri, Apr 05, 2024 at 4:10 PM</t>
   </si>
   <si>
@@ -411,12 +354,6 @@
     <t>SummaryAddEnquiry@gmail.com</t>
   </si>
   <si>
-    <t>LeadMultiFailure@gmail.com</t>
-  </si>
-  <si>
-    <t>EnquiryMultiFailureName</t>
-  </si>
-  <si>
     <t>DefaultMultiFailureText</t>
   </si>
   <si>
@@ -432,15 +369,9 @@
     <t>West Bengal</t>
   </si>
   <si>
-    <t>2024-03-23</t>
-  </si>
-  <si>
     <t>03:30:20 PM</t>
   </si>
   <si>
-    <t>2024-03-23 03:35:46 PM</t>
-  </si>
-  <si>
     <t>Mr.</t>
   </si>
   <si>
@@ -477,19 +408,82 @@
     <t>SalesMultiFailDefault@gmail.com</t>
   </si>
   <si>
-    <t>2024-04-06</t>
-  </si>
-  <si>
-    <t>2024-04-06 12:27:32 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 12:30 PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marlon</t>
-  </si>
-  <si>
     <t>https://testng.org/testng-eclipse-update-site/</t>
+  </si>
+  <si>
+    <t>DuplicateAddNew@rsoft.in</t>
+  </si>
+  <si>
+    <t>DuplicateAddEnquiry@gmail.com</t>
+  </si>
+  <si>
+    <t>DuplicateNewLead@gmail.com</t>
+  </si>
+  <si>
+    <t>DuplicateAddNewSales@gmail.com</t>
+  </si>
+  <si>
+    <t>Edit&amp;SaveAddNew@rsoft.in</t>
+  </si>
+  <si>
+    <t>Edit&amp;SaveAddEnquiry@gmail.com</t>
+  </si>
+  <si>
+    <t>Edit&amp;SaveNewLead@gmail.com</t>
+  </si>
+  <si>
+    <t>Edit&amp;SaveNewSales@gmail.com</t>
+  </si>
+  <si>
+    <t>09-04-2024</t>
+  </si>
+  <si>
+    <t>09-04-2024 03:35:46 PM</t>
+  </si>
+  <si>
+    <t>23-03-2024</t>
+  </si>
+  <si>
+    <t>23-03-2024 03:35:46 PM</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>EnquiryModuleName</t>
+  </si>
+  <si>
+    <t>LeadEmail@gmail.com</t>
+  </si>
+  <si>
+    <t>09-04-2024 02:16:45 PM</t>
+  </si>
+  <si>
+    <t>09-04-2024 02:25:08 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 2:36 PM</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>09-04-2024 03:06:24 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 3:09 PM</t>
+  </si>
+  <si>
+    <t>09-04-2024 03:14:54 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 3:18 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 3:26 PM</t>
   </si>
 </sst>
 </file>
@@ -544,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -574,6 +568,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -860,72 +857,72 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="2"/>
-    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="2"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2"/>
-    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2"/>
-    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="27.5703125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="19.140625"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="26.140625"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="22.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1033,28 +1030,28 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1081,18 +1078,18 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1104,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>67</v>
@@ -1127,17 +1124,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>151</v>
+      <c r="O2" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1170,16 +1167,16 @@
         <v>70</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1188,28 +1185,28 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>98</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1218,7 +1215,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>71</v>
@@ -1230,13 +1227,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>73</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1257,72 +1254,72 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="2" width="17.5703125"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="20.140625"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="2" width="24.0"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="30.5703125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="17.42578125"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="30.85546875"/>
+    <col min="54" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1430,13 +1427,13 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>51</v>
@@ -1448,10 +1445,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1478,33 +1475,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1524,17 +1521,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>119</v>
+      <c r="O2" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>150</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1546,7 +1543,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1561,22 +1558,22 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1585,25 +1582,25 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1612,10 +1609,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -1624,13 +1621,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1649,68 +1646,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="37.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="25.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1818,13 +1815,13 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>51</v>
@@ -1836,10 +1833,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1866,30 +1863,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1909,8 +1909,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O2" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="R2" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1922,7 +1931,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1937,22 +1946,22 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1961,19 +1970,25 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1982,10 +1997,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -1994,10 +2009,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>76</v>
+        <v>131</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2017,68 +2035,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2186,13 +2205,13 @@
         <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>51</v>
@@ -2204,10 +2223,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2233,31 +2252,34 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>79</v>
+      <c r="BB1" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2277,8 +2299,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="O2" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="R2" s="2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2290,10 +2321,10 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="7">
-        <v>10000</v>
+        <v>80</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>45</v>
@@ -2305,22 +2336,22 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2329,19 +2360,25 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2350,10 +2387,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -2362,10 +2399,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>98</v>
+        <v>135</v>
+      </c>
+      <c r="BB2" t="s" s="2">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2384,30 +2424,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="31.7109375"/>
+    <col min="9" max="9" customWidth="true" width="31.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2422,48 +2462,48 @@
         <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="2">
-        <v>9876543210</v>
+        <v>2222222222</v>
       </c>
     </row>
   </sheetData>
@@ -2479,67 +2519,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.5703125"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.140625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="5.0"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.42578125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="8.85546875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.42578125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.28515625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="43.28515625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="27.85546875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="29.0"/>
+    <col min="29" max="29" customWidth="true" width="32.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="15.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="30.85546875"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" width="15.5703125"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="44" max="45" bestFit="true" customWidth="true" width="19.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="10.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="27.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="21.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="29.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2665,10 +2705,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2694,25 +2734,25 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s">
-        <v>79</v>
+      <c r="BB1" t="s" s="0">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2721,19 +2761,19 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
-        <v>132</v>
+      <c r="J2" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
@@ -2742,73 +2782,73 @@
         <v>25</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="W2">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="AF2" s="2">
         <v>9876543210</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2820,10 +2860,10 @@
         <v>9876543210</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2832,9 +2872,9 @@
         <v>9876543210</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB2" t="s" s="0">
         <v>152</v>
       </c>
     </row>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="162">
   <si>
     <t>WorflowName</t>
   </si>
@@ -484,6 +484,33 @@
   </si>
   <si>
     <t>CT: Tue, Apr 09, 2024 at 3:26 PM</t>
+  </si>
+  <si>
+    <t>12-04-2024</t>
+  </si>
+  <si>
+    <t>12-04-2024 03:31:37 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 12, 2024 at 3:34 PM</t>
+  </si>
+  <si>
+    <t>12-04-2024 03:40:14 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 12, 2024 at 3:43 PM</t>
+  </si>
+  <si>
+    <t>12-04-2024 03:35:46 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 12, 2024 at 3:51 PM</t>
+  </si>
+  <si>
+    <t>12-04-2024 05:18:30 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 12, 2024 at 5:21 PM</t>
   </si>
 </sst>
 </file>
@@ -1125,13 +1152,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -1170,7 +1197,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1522,13 +1549,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -1567,7 +1594,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1910,13 +1937,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -1955,7 +1982,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2300,13 +2327,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -2345,7 +2372,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2405,7 +2432,7 @@
         <v>135</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2875,7 +2902,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="175">
   <si>
     <t>WorflowName</t>
   </si>
@@ -511,6 +511,45 @@
   </si>
   <si>
     <t>CT: Fri, Apr 12, 2024 at 5:21 PM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>29-05-2024</t>
+  </si>
+  <si>
+    <t>29-05-2024 12:36:14 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 12:49:47 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, May 29, 2024 at 12:53 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 12:58:31 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, May 29, 2024 at 1:02 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 01:19:41 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, May 29, 2024 at 1:23 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 01:28:36 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, May 29, 2024 at 1:32 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 02:23:49 PM</t>
+  </si>
+  <si>
+    <t>29-05-2024 02:30:36 PM</t>
   </si>
 </sst>
 </file>
@@ -1152,13 +1191,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -1197,7 +1236,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1218,7 +1257,7 @@
         <v>105</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>91</v>
@@ -1549,13 +1588,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -1594,7 +1633,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2902,7 +2941,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>161</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="179">
   <si>
     <t>WorflowName</t>
   </si>
@@ -550,6 +550,18 @@
   </si>
   <si>
     <t>29-05-2024 02:30:36 PM</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>02:35:55</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:00:00</t>
+  </si>
+  <si>
+    <t>2024-06-07 05:00:00</t>
   </si>
 </sst>
 </file>
@@ -1191,13 +1203,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -1236,7 +1248,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1588,13 +1600,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -1633,7 +1645,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1976,13 +1988,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -2021,7 +2033,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2366,13 +2378,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>103</v>
@@ -2411,7 +2423,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="147">
   <si>
     <t>WorflowName</t>
   </si>
@@ -321,9 +321,6 @@
     <t>OpportPhonePrefix</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>02:35:55 PM</t>
   </si>
   <si>
@@ -423,24 +420,6 @@
     <t>DuplicateAddNewSales@gmail.com</t>
   </si>
   <si>
-    <t>Edit&amp;SaveAddNew@rsoft.in</t>
-  </si>
-  <si>
-    <t>Edit&amp;SaveAddEnquiry@gmail.com</t>
-  </si>
-  <si>
-    <t>Edit&amp;SaveNewLead@gmail.com</t>
-  </si>
-  <si>
-    <t>Edit&amp;SaveNewSales@gmail.com</t>
-  </si>
-  <si>
-    <t>09-04-2024</t>
-  </si>
-  <si>
-    <t>09-04-2024 03:35:46 PM</t>
-  </si>
-  <si>
     <t>23-03-2024</t>
   </si>
   <si>
@@ -456,112 +435,37 @@
     <t>LeadEmail@gmail.com</t>
   </si>
   <si>
-    <t>09-04-2024 02:16:45 PM</t>
-  </si>
-  <si>
-    <t>09-04-2024 02:25:08 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 2:36 PM</t>
-  </si>
-  <si>
     <t>1,000</t>
   </si>
   <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>09-04-2024 03:06:24 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 3:09 PM</t>
-  </si>
-  <si>
-    <t>09-04-2024 03:14:54 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 3:18 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 3:26 PM</t>
-  </si>
-  <si>
-    <t>12-04-2024</t>
-  </si>
-  <si>
-    <t>12-04-2024 03:31:37 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 12, 2024 at 3:34 PM</t>
-  </si>
-  <si>
-    <t>12-04-2024 03:40:14 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 12, 2024 at 3:43 PM</t>
-  </si>
-  <si>
-    <t>12-04-2024 03:35:46 PM</t>
-  </si>
-  <si>
     <t>CT: Fri, Apr 12, 2024 at 3:51 PM</t>
   </si>
   <si>
-    <t>12-04-2024 05:18:30 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 12, 2024 at 5:21 PM</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>29-05-2024</t>
-  </si>
-  <si>
-    <t>29-05-2024 12:36:14 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 12:49:47 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, May 29, 2024 at 12:53 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 12:58:31 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, May 29, 2024 at 1:02 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 01:19:41 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, May 29, 2024 at 1:23 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 01:28:36 PM</t>
-  </si>
-  <si>
     <t>CT: Wed, May 29, 2024 at 1:32 PM</t>
   </si>
   <si>
-    <t>29-05-2024 02:23:49 PM</t>
-  </si>
-  <si>
-    <t>29-05-2024 02:30:36 PM</t>
-  </si>
-  <si>
-    <t>2024-06-04</t>
-  </si>
-  <si>
-    <t>02:35:55</t>
-  </si>
-  <si>
-    <t>2024-06-04 08:00:00</t>
-  </si>
-  <si>
-    <t>2024-06-07 05:00:00</t>
+    <t>15-07-2024</t>
+  </si>
+  <si>
+    <t>18-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>EditSave@rsoft.in</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>EditSaveEnquiry@gmail.com</t>
+  </si>
+  <si>
+    <t>EditSaveLead@gmail.com</t>
+  </si>
+  <si>
+    <t>EditSaveSales@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -934,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BD2" sqref="BD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,13 +1065,13 @@
     </row>
     <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1203,16 +1107,16 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1248,7 +1152,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1263,13 +1167,13 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="AK2" t="s" s="2">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>91</v>
@@ -1281,10 +1185,10 @@
         <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1311,7 +1215,7 @@
         <v>73</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1558,13 +1462,13 @@
     </row>
     <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1600,16 +1504,16 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1636,7 +1540,7 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
@@ -1645,7 +1549,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1660,10 +1564,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>91</v>
@@ -1675,10 +1579,10 @@
         <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1705,7 +1609,7 @@
         <v>83</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1724,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,13 +1850,13 @@
     </row>
     <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1967,7 +1871,7 @@
         <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1987,17 +1891,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>178</v>
+      <c r="O2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2024,7 +1928,7 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
@@ -2032,8 +1936,8 @@
       <c r="AC2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" t="s" s="2">
-        <v>175</v>
+      <c r="AD2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2048,10 +1952,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>91</v>
@@ -2063,10 +1967,10 @@
         <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2078,7 +1982,7 @@
         <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -2090,10 +1994,10 @@
         <v>87</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2113,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,7 +2030,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
@@ -2330,19 +2234,19 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="2">
+      <c r="BB1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:54" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -2357,7 +2261,7 @@
         <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2377,17 +2281,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>178</v>
+      <c r="O2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2402,7 +2306,7 @@
         <v>80</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>45</v>
@@ -2414,7 +2318,7 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
@@ -2422,8 +2326,8 @@
       <c r="AC2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" t="s" s="2">
-        <v>175</v>
+      <c r="AD2" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2438,10 +2342,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>91</v>
@@ -2453,10 +2357,10 @@
         <v>93</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2468,7 +2372,7 @@
         <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -2480,10 +2384,10 @@
         <v>87</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB2" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2554,28 +2458,28 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>58</v>
@@ -2597,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,19 +2722,19 @@
     </row>
     <row r="2" spans="1:54" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2839,19 +2743,19 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
@@ -2860,73 +2764,73 @@
         <v>25</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="W2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="AF2" s="2">
         <v>9876543210</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AJ2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2938,10 +2842,10 @@
         <v>9876543210</v>
       </c>
       <c r="AW2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2950,10 +2854,10 @@
         <v>9876543210</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>172</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="153">
   <si>
     <t>WorflowName</t>
   </si>
@@ -429,9 +429,6 @@
     <t>Marlon</t>
   </si>
   <si>
-    <t>EnquiryModuleName</t>
-  </si>
-  <si>
     <t>LeadEmail@gmail.com</t>
   </si>
   <si>
@@ -466,6 +463,27 @@
   </si>
   <si>
     <t>EditSaveSales@gmail.com</t>
+  </si>
+  <si>
+    <t>FailModuleEnquiryModuleName</t>
+  </si>
+  <si>
+    <t>16-07-2024</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>19-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 12:38 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 12:48 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 12:57 PM</t>
   </si>
 </sst>
 </file>
@@ -838,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,13 +1125,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>98</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1152,7 +1170,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1173,7 +1191,7 @@
         <v>104</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>91</v>
@@ -1235,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1504,13 +1522,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>98</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1549,7 +1567,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1628,7 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
@@ -1891,14 +1909,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>141</v>
+      <c r="Q2" t="s" s="2">
+        <v>149</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1936,8 +1954,8 @@
       <c r="AC2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>140</v>
+      <c r="AD2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2017,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BE2" sqref="BE2"/>
     </sheetView>
   </sheetViews>
@@ -2261,7 +2279,7 @@
         <v>84</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2281,14 +2299,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>141</v>
+      <c r="Q2" t="s" s="2">
+        <v>149</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -2306,7 +2324,7 @@
         <v>80</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>45</v>
@@ -2318,7 +2336,7 @@
         <v>68</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>70</v>
@@ -2326,8 +2344,8 @@
       <c r="AC2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>140</v>
+      <c r="AD2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2372,7 +2390,7 @@
         <v>86</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>72</v>
@@ -2384,10 +2402,10 @@
         <v>87</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2460,8 +2478,8 @@
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>101</v>
+      <c r="B2" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>106</v>
@@ -2476,10 +2494,10 @@
         <v>104</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>58</v>
@@ -2501,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2743,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>106</v>
@@ -2788,7 +2806,7 @@
         <v>115</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>126</v>
@@ -2857,7 +2875,7 @@
         <v>125</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_MultiFailureCase_Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="155">
   <si>
     <t>WorflowName</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>CT: Tue, Jul 16, 2024 at 12:57 PM</t>
+  </si>
+  <si>
+    <t>06-01-2025</t>
+  </si>
+  <si>
+    <t>09-01-2025 05:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -1125,13 +1131,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>98</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1170,7 +1176,7 @@
         <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
